--- a/Assets/Resources/DataExcels/asset.xlsx
+++ b/Assets/Resources/DataExcels/asset.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linxi/Documents/GitHub/SG/HerbTails/Assets/Resources/DataExcels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\HerbTails\Assets\Resources\DataExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CC45A3-C762-7342-946E-CEC3ACC191D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F57456-2641-44B8-A8B8-B104C9F5ED95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="2920" windowWidth="28040" windowHeight="17440" xr2:uid="{687221EB-E648-774B-8C00-BCE32B697C34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{687221EB-E648-774B-8C00-BCE32B697C34}"/>
   </bookViews>
   <sheets>
     <sheet name="Herbs" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Medium" sheetId="4" r:id="rId2"/>
+    <sheet name="SlicedHerbs" sheetId="3" r:id="rId3"/>
+    <sheet name="GindedHerbs" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -105,13 +105,94 @@
   </si>
   <si>
     <t>Assets/UISprite/excel.aseprite|7</t>
+  </si>
+  <si>
+    <t>红色草药</t>
+  </si>
+  <si>
+    <t>这是测试用的红色草药</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/example.aseprite|2</t>
+  </si>
+  <si>
+    <t>这是测试用的绿色草药</t>
+  </si>
+  <si>
+    <t>绿色草药</t>
+  </si>
+  <si>
+    <t>这是测试用的蓝色草药</t>
+  </si>
+  <si>
+    <t>蓝色草药</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/example.aseprite|1</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/example.aseprite|0</t>
+  </si>
+  <si>
+    <t>Assets/Prefabs/Items/Herbs/Test.prefab</t>
+  </si>
+  <si>
+    <t>Sliced切片的</t>
+  </si>
+  <si>
+    <t>Grinded磨碎的名字</t>
+  </si>
+  <si>
+    <t>磨碎的红色草药</t>
+  </si>
+  <si>
+    <t>磨碎的绿色草药</t>
+  </si>
+  <si>
+    <t>磨碎的蓝色草药</t>
+  </si>
+  <si>
+    <t>测试的红色草药</t>
+  </si>
+  <si>
+    <t>测试的绿色草药</t>
+  </si>
+  <si>
+    <t>测试的蓝色草药</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/example_sliced.aseprite|1</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/example_sliced.aseprite|2</t>
+  </si>
+  <si>
+    <t>dfadf</t>
+  </si>
+  <si>
+    <t>dfasdf</t>
+  </si>
+  <si>
+    <t>dfdfdf</t>
+  </si>
+  <si>
+    <t>dsfadsfasdgdfsg</t>
+  </si>
+  <si>
+    <t>asdfasdg</t>
+  </si>
+  <si>
+    <t>agdgfasf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,13 +213,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -161,9 +288,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -179,7 +321,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -495,23 +637,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E334C7F-7DA4-D84D-B0F4-0C2A1DBEDDBF}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="38" style="2" customWidth="1"/>
     <col min="2" max="2" width="50.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="65.1640625" style="2" customWidth="1"/>
     <col min="4" max="5" width="10.83203125" style="2"/>
     <col min="6" max="6" width="43.33203125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="35.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="33" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,8 +675,17 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -550,8 +704,9 @@
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -570,8 +725,9 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -590,8 +746,9 @@
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -610,8 +767,9 @@
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -630,69 +788,130 @@
       <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="17" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="20" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="21" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="22" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="23" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="24" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="25" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="26" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -700,13 +919,142 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3368BBFE-BECA-2E49-ACAD-103F18EC7B26}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A42A68-3584-6C46-86BC-8CF7E0161329}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="37.83203125" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.9140625" customWidth="1"/>
+    <col min="4" max="4" width="71.1640625" customWidth="1"/>
+    <col min="5" max="5" width="110.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -715,22 +1063,398 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC29E708-8554-5140-A096-DA9EA2CDC017}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A42A68-3584-6C46-86BC-8CF7E0161329}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3368BBFE-BECA-2E49-ACAD-103F18EC7B26}">
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="60.5" customWidth="1"/>
+    <col min="3" max="3" width="27.9140625" customWidth="1"/>
+    <col min="4" max="4" width="25.58203125" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/Resources/DataExcels/asset.xlsx
+++ b/Assets/Resources/DataExcels/asset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\HerbTails\Assets\Resources\DataExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linxi/Documents/GitHub/SG/HerbTails/Assets/Resources/DataExcels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F57456-2641-44B8-A8B8-B104C9F5ED95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5AFFE0-27AE-7548-9EA4-B900F2D36421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{687221EB-E648-774B-8C00-BCE32B697C34}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21100" xr2:uid="{687221EB-E648-774B-8C00-BCE32B697C34}"/>
   </bookViews>
   <sheets>
     <sheet name="Herbs" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.499984740745262"/>
+        <fgColor theme="3" tint="0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +305,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -321,7 +321,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -639,11 +639,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E334C7F-7DA4-D84D-B0F4-0C2A1DBEDDBF}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38" style="2" customWidth="1"/>
     <col min="2" max="2" width="50.83203125" style="2" customWidth="1"/>
@@ -656,7 +656,7 @@
     <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -706,7 +706,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -727,7 +727,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -748,7 +748,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -769,7 +769,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -790,7 +790,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -811,7 +811,7 @@
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -832,7 +832,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -853,65 +853,65 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="26" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -922,20 +922,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A42A68-3584-6C46-86BC-8CF7E0161329}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.9140625" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" customWidth="1"/>
     <col min="4" max="4" width="71.1640625" customWidth="1"/>
-    <col min="5" max="5" width="110.58203125" customWidth="1"/>
+    <col min="5" max="5" width="110.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -952,7 +952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -969,7 +969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -986,7 +986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>45</v>
       </c>
@@ -1067,7 +1067,7 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1081,16 +1081,16 @@
       <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.6640625" customWidth="1"/>
     <col min="2" max="2" width="60.5" customWidth="1"/>
-    <col min="3" max="3" width="27.9140625" customWidth="1"/>
-    <col min="4" max="4" width="25.58203125" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -1132,7 +1132,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -1153,7 +1153,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -1174,7 +1174,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1185,7 +1185,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1196,7 +1196,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1207,7 +1207,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1218,7 +1218,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1229,7 +1229,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1240,7 +1240,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1251,7 +1251,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1262,7 +1262,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1273,7 +1273,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1284,7 +1284,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1295,7 +1295,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1306,7 +1306,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1317,7 +1317,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1328,7 +1328,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1339,7 +1339,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1350,7 +1350,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1361,7 +1361,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1372,7 +1372,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1383,7 +1383,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1394,7 +1394,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1405,7 +1405,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1416,7 +1416,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1427,7 +1427,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1438,22 +1438,22 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Resources/DataExcels/asset.xlsx
+++ b/Assets/Resources/DataExcels/asset.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linxi/Documents/GitHub/SG/HerbTails/Assets/Resources/DataExcels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5AFFE0-27AE-7548-9EA4-B900F2D36421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE2C6F5-01F2-3F47-B889-F8AE57F7441A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21100" xr2:uid="{687221EB-E648-774B-8C00-BCE32B697C34}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21100" activeTab="3" xr2:uid="{687221EB-E648-774B-8C00-BCE32B697C34}"/>
   </bookViews>
   <sheets>
     <sheet name="Herbs" sheetId="1" r:id="rId1"/>
     <sheet name="Medium" sheetId="4" r:id="rId2"/>
-    <sheet name="SlicedHerbs" sheetId="3" r:id="rId3"/>
-    <sheet name="GindedHerbs" sheetId="2" r:id="rId4"/>
+    <sheet name="药" sheetId="3" r:id="rId3"/>
+    <sheet name="药方" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E334C7F-7DA4-D84D-B0F4-0C2A1DBEDDBF}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="110" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -810,6 +810,9 @@
         <v>32</v>
       </c>
       <c r="G7" s="5"/>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -831,6 +834,9 @@
         <v>32</v>
       </c>
       <c r="G8" s="6"/>
+      <c r="H8" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -852,6 +858,9 @@
         <v>32</v>
       </c>
       <c r="G9" s="7"/>
+      <c r="H9" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -923,7 +932,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1077,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3368BBFE-BECA-2E49-ACAD-103F18EC7B26}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1091,84 +1100,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>15</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>15</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>

--- a/Assets/Resources/DataExcels/asset.xlsx
+++ b/Assets/Resources/DataExcels/asset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linxi/Documents/GitHub/SG/HerbTails/Assets/Resources/DataExcels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\HerbTails\Assets\Resources\DataExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE2C6F5-01F2-3F47-B889-F8AE57F7441A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409E054C-5828-40E2-8FAC-14E3D8931A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21100" activeTab="3" xr2:uid="{687221EB-E648-774B-8C00-BCE32B697C34}"/>
+    <workbookView xWindow="3480" yWindow="1750" windowWidth="23690" windowHeight="18040" activeTab="3" xr2:uid="{687221EB-E648-774B-8C00-BCE32B697C34}"/>
   </bookViews>
   <sheets>
     <sheet name="Herbs" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -186,13 +186,73 @@
   </si>
   <si>
     <t>agdgfasf</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>FirePeriod</t>
+  </si>
+  <si>
+    <t>LARGE|5</t>
+  </si>
+  <si>
+    <t>LARGE|6</t>
+  </si>
+  <si>
+    <t>LARGE|3</t>
+  </si>
+  <si>
+    <t>Example_Medicine1</t>
+  </si>
+  <si>
+    <t>Example_Medicine2</t>
+  </si>
+  <si>
+    <t>Example_Medicine3</t>
+  </si>
+  <si>
+    <t>Example_Medicine4</t>
+  </si>
+  <si>
+    <t>Example_Medicine5</t>
+  </si>
+  <si>
+    <t>Example_Medicine6</t>
+  </si>
+  <si>
+    <t>Example_Medicine7</t>
+  </si>
+  <si>
+    <t>Example_Medicine8</t>
+  </si>
+  <si>
+    <t>example_prescription1</t>
+  </si>
+  <si>
+    <t>example_prescription2</t>
+  </si>
+  <si>
+    <t>CraftMaterials|weight</t>
+  </si>
+  <si>
+    <t>红色草药|15</t>
+  </si>
+  <si>
+    <t>绿色草药|32</t>
+  </si>
+  <si>
+    <t>磨碎的红色草药|15</t>
+  </si>
+  <si>
+    <t>磨碎的绿色草药|32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -235,8 +295,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,8 +335,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -276,11 +350,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,9 +392,42 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -321,7 +443,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -640,10 +762,10 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="38" style="2" customWidth="1"/>
     <col min="2" max="2" width="50.83203125" style="2" customWidth="1"/>
@@ -656,7 +778,7 @@
     <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +807,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -706,7 +828,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -727,7 +849,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -748,7 +870,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -769,7 +891,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -790,7 +912,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -814,7 +936,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -838,7 +960,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -862,65 +984,65 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="24" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="25" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -932,10 +1054,10 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" customWidth="1"/>
@@ -944,7 +1066,7 @@
     <col min="5" max="5" width="110.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -961,7 +1083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -978,7 +1100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -995,7 +1117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -1012,7 +1134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -1029,7 +1151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
@@ -1046,7 +1168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>45</v>
       </c>
@@ -1070,14 +1192,178 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC29E708-8554-5140-A096-DA9EA2CDC017}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="43.83203125" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="3" max="3" width="54.4140625" customWidth="1"/>
+    <col min="4" max="4" width="36.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1087,10 +1373,10 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="43.6640625" customWidth="1"/>
     <col min="2" max="2" width="60.5" customWidth="1"/>
@@ -1099,9 +1385,13 @@
     <col min="5" max="5" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1110,9 +1400,13 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1121,9 +1415,11 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1132,9 +1428,11 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1143,9 +1441,11 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1154,9 +1454,13 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1165,9 +1469,13 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1176,9 +1484,11 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1187,9 +1497,11 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1198,9 +1510,11 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1209,9 +1523,13 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1220,9 +1538,13 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>65</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1231,9 +1553,11 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1242,9 +1566,11 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1253,9 +1579,11 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17" t="s">
+        <v>68</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1264,9 +1592,13 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1275,9 +1607,13 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1286,9 +1622,11 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1297,9 +1635,11 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1308,9 +1648,11 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1319,7 +1661,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1330,7 +1672,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1341,7 +1683,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1352,7 +1694,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1363,7 +1705,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1374,7 +1716,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1385,7 +1727,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1396,7 +1738,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1407,23 +1749,30 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A17:A20"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/Resources/DataExcels/asset.xlsx
+++ b/Assets/Resources/DataExcels/asset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\HerbTails\Assets\Resources\DataExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409E054C-5828-40E2-8FAC-14E3D8931A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA93CFE1-7C46-4E6F-B0A8-24D935055B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1750" windowWidth="23690" windowHeight="18040" activeTab="3" xr2:uid="{687221EB-E648-774B-8C00-BCE32B697C34}"/>
+    <workbookView xWindow="2260" yWindow="1680" windowWidth="33810" windowHeight="18040" activeTab="2" xr2:uid="{687221EB-E648-774B-8C00-BCE32B697C34}"/>
   </bookViews>
   <sheets>
     <sheet name="Herbs" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="198">
   <si>
     <t>Name</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Assets/UISprite/excel.aseprite|7</t>
   </si>
   <si>
-    <t>红色草药</t>
-  </si>
-  <si>
     <t>这是测试用的红色草药</t>
   </si>
   <si>
@@ -122,15 +119,9 @@
     <t>这是测试用的绿色草药</t>
   </si>
   <si>
-    <t>绿色草药</t>
-  </si>
-  <si>
     <t>这是测试用的蓝色草药</t>
   </si>
   <si>
-    <t>蓝色草药</t>
-  </si>
-  <si>
     <t>Assets/UISprite/example.aseprite|1</t>
   </si>
   <si>
@@ -146,15 +137,6 @@
     <t>Grinded磨碎的名字</t>
   </si>
   <si>
-    <t>磨碎的红色草药</t>
-  </si>
-  <si>
-    <t>磨碎的绿色草药</t>
-  </si>
-  <si>
-    <t>磨碎的蓝色草药</t>
-  </si>
-  <si>
     <t>测试的红色草药</t>
   </si>
   <si>
@@ -170,24 +152,6 @@
     <t>Assets/UISprite/example_sliced.aseprite|2</t>
   </si>
   <si>
-    <t>dfadf</t>
-  </si>
-  <si>
-    <t>dfasdf</t>
-  </si>
-  <si>
-    <t>dfdfdf</t>
-  </si>
-  <si>
-    <t>dsfadsfasdgdfsg</t>
-  </si>
-  <si>
-    <t>asdfasdg</t>
-  </si>
-  <si>
-    <t>agdgfasf</t>
-  </si>
-  <si>
     <t>Medicine</t>
   </si>
   <si>
@@ -212,21 +176,6 @@
     <t>Example_Medicine3</t>
   </si>
   <si>
-    <t>Example_Medicine4</t>
-  </si>
-  <si>
-    <t>Example_Medicine5</t>
-  </si>
-  <si>
-    <t>Example_Medicine6</t>
-  </si>
-  <si>
-    <t>Example_Medicine7</t>
-  </si>
-  <si>
-    <t>Example_Medicine8</t>
-  </si>
-  <si>
     <t>example_prescription1</t>
   </si>
   <si>
@@ -246,13 +195,451 @@
   </si>
   <si>
     <t>磨碎的绿色草药|32</t>
+  </si>
+  <si>
+    <t>TestPrescription</t>
+  </si>
+  <si>
+    <t>Test_Medicine</t>
+  </si>
+  <si>
+    <t>SMALL|5</t>
+  </si>
+  <si>
+    <t>MIDDLE|5</t>
+  </si>
+  <si>
+    <t>Atractylodes Macrocephala Rhizome</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|0</t>
+  </si>
+  <si>
+    <t>白术 Atractylodes macrocephala</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|1</t>
+  </si>
+  <si>
+    <t>白术2 Atractylodes macrocephala</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bupleurum Root </t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|2</t>
+  </si>
+  <si>
+    <t>柴胡 Bupleurum chinense</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|3</t>
+  </si>
+  <si>
+    <t>柴胡2 Bupleurum chinense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuanxiong Rhizome </t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|4</t>
+  </si>
+  <si>
+    <t>川芎 Ligusticum chuanxiong</t>
+  </si>
+  <si>
+    <t>Chuanxiong Rhizome</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|5</t>
+  </si>
+  <si>
+    <t>川芎2 Ligusticum chuanxiong</t>
+  </si>
+  <si>
+    <t>Astragalus Root</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|6</t>
+  </si>
+  <si>
+    <t>黄芪 Astragalus membranaceus</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|7</t>
+  </si>
+  <si>
+    <t>黄芪2 Astragalus membranaceus</t>
+  </si>
+  <si>
+    <t>Pinellia Rhizome</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|8</t>
+  </si>
+  <si>
+    <t>半夏 Pinellia ternata</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|9</t>
+  </si>
+  <si>
+    <t>半夏2 Pinellia ternata</t>
+  </si>
+  <si>
+    <t>Polygala Root</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|10</t>
+  </si>
+  <si>
+    <t>远志 Polygala tenuifolia</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|11</t>
+  </si>
+  <si>
+    <t>远志2 Polygala tenuifolia</t>
+  </si>
+  <si>
+    <t>Anemarrhena Rhizome</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|12</t>
+  </si>
+  <si>
+    <t>知母 Anemarrhena asphodeloides</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|13</t>
+  </si>
+  <si>
+    <t>知母2 Anemarrhena asphodeloides</t>
+  </si>
+  <si>
+    <t>Longan Aril</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|15</t>
+  </si>
+  <si>
+    <t>龙眼肉 Dimocarpus longan</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|16</t>
+  </si>
+  <si>
+    <t>龙眼2 Dimocarpus longan</t>
+  </si>
+  <si>
+    <t>Poria</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|17</t>
+  </si>
+  <si>
+    <t>茯苓 Poria cocos</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|18</t>
+  </si>
+  <si>
+    <t>茯苓2 Poria cocos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cornelian Cherry Fruit</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|19</t>
+  </si>
+  <si>
+    <t>山茱萸 Cornus officinalis</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|20</t>
+  </si>
+  <si>
+    <t>山茱萸2 Cornus officinalis</t>
+  </si>
+  <si>
+    <t>Cimicifuga Rhizome</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|21</t>
+  </si>
+  <si>
+    <t>升麻 Cimicifuga foetida</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|22</t>
+  </si>
+  <si>
+    <t>升麻2 Cimicifuga foetida</t>
+  </si>
+  <si>
+    <t>Sour Jujube Seed</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|23</t>
+  </si>
+  <si>
+    <t>酸枣仁 Ziziphus jujuba var. spinosa</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|24</t>
+  </si>
+  <si>
+    <t>酸枣2 Ziziphus jujuba var. spinosa</t>
+  </si>
+  <si>
+    <t>Chinese Yam</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|25</t>
+  </si>
+  <si>
+    <t>山药 Dioscorea opposita</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|26</t>
+  </si>
+  <si>
+    <t>山药2 Dioscorea opposita</t>
+  </si>
+  <si>
+    <t>Costus Root</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|27</t>
+  </si>
+  <si>
+    <t>木香 Aucklandia lappa</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|28</t>
+  </si>
+  <si>
+    <t>木香2 Aucklandia lappa</t>
+  </si>
+  <si>
+    <t>Ginseng</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|29</t>
+  </si>
+  <si>
+    <t>人参 Panax ginseng</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|30</t>
+  </si>
+  <si>
+    <t>人参2 Panax ginseng</t>
+  </si>
+  <si>
+    <t>Dried Tangerine Peel</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|31</t>
+  </si>
+  <si>
+    <t>陈皮 Citrus reticulata pericarpium</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|32</t>
+  </si>
+  <si>
+    <t>陈皮2 Citrus reticulata pericarpium</t>
+  </si>
+  <si>
+    <t>Tree Peony Bark</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|33</t>
+  </si>
+  <si>
+    <t>丹皮 Paeonia suffruticosa</t>
+  </si>
+  <si>
+    <t>Peony flower</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|34</t>
+  </si>
+  <si>
+    <t>牡丹 Paeonia suffruticosa Andr</t>
+  </si>
+  <si>
+    <t>Alisma Rhizome</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|35</t>
+  </si>
+  <si>
+    <t>泽泻 Alisma orientale</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|36</t>
+  </si>
+  <si>
+    <t>泽泻2 Alisma orientale</t>
+  </si>
+  <si>
+    <t>Licorice Root</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|37</t>
+  </si>
+  <si>
+    <t>甘草 Glycyrrhiza uralensis</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|38</t>
+  </si>
+  <si>
+    <t>甘草2 Glycyrrhiza uralensis</t>
+  </si>
+  <si>
+    <t>Chinese Angelica Root</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|39</t>
+  </si>
+  <si>
+    <t>当归 Angelica sinensis</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|40</t>
+  </si>
+  <si>
+    <t>当归2 Angelica sinensis</t>
+  </si>
+  <si>
+    <t>White Peony Root</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|41</t>
+  </si>
+  <si>
+    <t>白芍 Paeonia lactiflora</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|42</t>
+  </si>
+  <si>
+    <t>白芍2 Paeonia lactiflora</t>
+  </si>
+  <si>
+    <t>Prepared Rehmannia Root</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|43</t>
+  </si>
+  <si>
+    <t>熟地 Rehmannia glutinosa Praeparata</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|44</t>
+  </si>
+  <si>
+    <t>熟地2 Rehmannia glutinosa Praeparata</t>
+  </si>
+  <si>
+    <t>Fresh Ginger</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|45</t>
+  </si>
+  <si>
+    <t>生姜 Zingiber officinale</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|46</t>
+  </si>
+  <si>
+    <t>生姜2 Zingiber officinale</t>
+  </si>
+  <si>
+    <t>Jujube Fruit</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|47</t>
+  </si>
+  <si>
+    <t>大枣 Ziziphus jujuba</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|48</t>
+  </si>
+  <si>
+    <t>大枣2 Ziziphus jujuba</t>
+  </si>
+  <si>
+    <t>Black Plum</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|49</t>
+  </si>
+  <si>
+    <t>乌梅 Prunus mume</t>
+  </si>
+  <si>
+    <t>乌梅2 Prunus mume</t>
+  </si>
+  <si>
+    <t>RedHerb</t>
+  </si>
+  <si>
+    <t>GreenHerb</t>
+  </si>
+  <si>
+    <t>BlueHerb</t>
+  </si>
+  <si>
+    <t>GrindedRedHerb</t>
+  </si>
+  <si>
+    <t>GrindedGreenHerb</t>
+  </si>
+  <si>
+    <t>GrindedBlueHerb</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|14</t>
+  </si>
+  <si>
+    <t>RedHerb|15</t>
+  </si>
+  <si>
+    <t>BlueHerb|30</t>
+  </si>
+  <si>
+    <t>GrindedRedHerb|15</t>
+  </si>
+  <si>
+    <t>GrindedGreenHerb|32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cornelian Cherry Fruit|15</t>
+  </si>
+  <si>
+    <t>White Peony Root|32</t>
+  </si>
+  <si>
+    <t>Fresh Ginger|15</t>
+  </si>
+  <si>
+    <t>Licorice Root|32</t>
+  </si>
+  <si>
+    <t>This medicine is for testing. Drink it, and the game will develop itself.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -303,8 +690,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC3A266"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="0.39994506668294322"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +755,114 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3A266"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE38EC2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE39B5E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFE68B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF73492C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDDEBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC561"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9B7042"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5C1E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDC6349"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC24122"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB34127"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD57922"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0FDA6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -369,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -407,19 +929,103 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -761,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E334C7F-7DA4-D84D-B0F4-0C2A1DBEDDBF}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A8"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -798,13 +1404,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -914,131 +1520,1281 @@
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="2" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="2" t="s">
-        <v>36</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>15</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>15</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>15</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>15</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="32"/>
+      <c r="H19" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>6</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="29"/>
+      <c r="H24" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="24"/>
+      <c r="H25" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="31"/>
+      <c r="H26" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="35"/>
+      <c r="H28" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="36"/>
+      <c r="H29" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="37"/>
+      <c r="H30" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="29"/>
+      <c r="H31" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="38"/>
+      <c r="H32" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="38"/>
+      <c r="H33" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>3</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="31"/>
+      <c r="H34" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="33"/>
+      <c r="H35" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="33"/>
+      <c r="H36" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="31"/>
+      <c r="H37" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="39"/>
+      <c r="H38" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="39"/>
+      <c r="H39" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="33"/>
+      <c r="H40" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="25"/>
+      <c r="H41" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="28"/>
+      <c r="H42" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="37"/>
+      <c r="H43" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>3</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="31"/>
+      <c r="H44" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>3</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="31"/>
+      <c r="H45" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="29"/>
+      <c r="H46" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>3</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="32"/>
+      <c r="H47" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
+        <v>2</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="28"/>
+      <c r="H48" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="32"/>
+      <c r="H49" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2">
+        <v>2</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="31"/>
+      <c r="H50" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="40"/>
+      <c r="H51" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
+        <v>3</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="41"/>
+      <c r="H52" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2">
+        <v>3</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="38"/>
+      <c r="H53" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2">
+        <v>3</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="28"/>
+      <c r="H54" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
+        <v>3</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="27"/>
+      <c r="H55" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2">
+        <v>3</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="38"/>
+      <c r="H56" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2">
+        <v>3</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="38"/>
+      <c r="H57" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" s="42"/>
+      <c r="H58" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="43"/>
+      <c r="H59" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1051,10 +2807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A42A68-3584-6C46-86BC-8CF7E0161329}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -1062,8 +2818,8 @@
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" customWidth="1"/>
     <col min="3" max="3" width="39.83203125" customWidth="1"/>
-    <col min="4" max="4" width="71.1640625" customWidth="1"/>
-    <col min="5" max="5" width="110.5" customWidth="1"/>
+    <col min="4" max="4" width="33.75" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.4">
@@ -1085,104 +2841,53 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1194,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC29E708-8554-5140-A096-DA9EA2CDC017}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1234,7 +2939,7 @@
     </row>
     <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
@@ -1248,7 +2953,7 @@
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -1262,7 +2967,7 @@
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -1274,73 +2979,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="80" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>197</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1372,8 +3021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3368BBFE-BECA-2E49-ACAD-103F18EC7B26}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -1390,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1401,11 +3050,11 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>65</v>
+      <c r="A2" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1416,9 +3065,9 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="12" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1429,9 +3078,9 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="11"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="12" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1442,9 +3091,9 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="11"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="12" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1455,11 +3104,11 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>55</v>
+      <c r="A6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1470,11 +3119,11 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>51</v>
+      <c r="A7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1485,9 +3134,9 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="11"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="12" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1498,9 +3147,9 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="11"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="12" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1511,9 +3160,9 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="11"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="12" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1524,11 +3173,11 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>63</v>
+      <c r="B11" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1539,11 +3188,11 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="16" t="s">
-        <v>64</v>
+      <c r="A12" s="46" t="s">
+        <v>47</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1554,9 +3203,9 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17" t="s">
-        <v>66</v>
+      <c r="A13" s="46"/>
+      <c r="B13" s="16" t="s">
+        <v>194</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1567,9 +3216,9 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17" t="s">
-        <v>67</v>
+      <c r="A14" s="46"/>
+      <c r="B14" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1580,9 +3229,9 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17" t="s">
-        <v>68</v>
+      <c r="A15" s="46"/>
+      <c r="B15" s="16" t="s">
+        <v>196</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1593,11 +3242,11 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="18" t="s">
-        <v>49</v>
+      <c r="A16" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1608,11 +3257,11 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="16" t="s">
-        <v>50</v>
+      <c r="A17" s="46" t="s">
+        <v>38</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1623,9 +3272,9 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17" t="s">
-        <v>51</v>
+      <c r="A18" s="46"/>
+      <c r="B18" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1636,9 +3285,9 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17" t="s">
-        <v>52</v>
+      <c r="A19" s="46"/>
+      <c r="B19" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1649,9 +3298,9 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17" t="s">
-        <v>53</v>
+      <c r="A20" s="46"/>
+      <c r="B20" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1662,8 +3311,12 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1673,8 +3326,12 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>189</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1684,8 +3341,10 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="21" t="s">
+        <v>190</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1695,8 +3354,10 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="21" t="s">
+        <v>191</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1706,8 +3367,10 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="21" t="s">
+        <v>192</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1717,8 +3380,12 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1728,8 +3395,12 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1739,8 +3410,10 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1749,8 +3422,18 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="44"/>
+      <c r="B29" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="44"/>
+      <c r="B30" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1766,13 +3449,16 @@
     <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A27:A30"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/DataExcels/asset.xlsx
+++ b/Assets/Resources/DataExcels/asset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\HerbTails\Assets\Resources\DataExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA93CFE1-7C46-4E6F-B0A8-24D935055B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD866E9-CA28-45E0-960C-625DC7AC95A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="1680" windowWidth="33810" windowHeight="18040" activeTab="2" xr2:uid="{687221EB-E648-774B-8C00-BCE32B697C34}"/>
+    <workbookView xWindow="1860" yWindow="1200" windowWidth="33810" windowHeight="18040" activeTab="1" xr2:uid="{687221EB-E648-774B-8C00-BCE32B697C34}"/>
   </bookViews>
   <sheets>
     <sheet name="Herbs" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="203">
   <si>
     <t>Name</t>
   </si>
@@ -113,21 +113,12 @@
     <t>Color</t>
   </si>
   <si>
-    <t>Assets/UISprite/example.aseprite|2</t>
-  </si>
-  <si>
     <t>这是测试用的绿色草药</t>
   </si>
   <si>
     <t>这是测试用的蓝色草药</t>
   </si>
   <si>
-    <t>Assets/UISprite/example.aseprite|1</t>
-  </si>
-  <si>
-    <t>Assets/UISprite/example.aseprite|0</t>
-  </si>
-  <si>
     <t>Assets/Prefabs/Items/Herbs/Test.prefab</t>
   </si>
   <si>
@@ -146,12 +137,6 @@
     <t>测试的蓝色草药</t>
   </si>
   <si>
-    <t>Assets/UISprite/example_sliced.aseprite|1</t>
-  </si>
-  <si>
-    <t>Assets/UISprite/example_sliced.aseprite|2</t>
-  </si>
-  <si>
     <t>Medicine</t>
   </si>
   <si>
@@ -212,375 +197,228 @@
     <t>Atractylodes Macrocephala Rhizome</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|0</t>
-  </si>
-  <si>
     <t>白术 Atractylodes macrocephala</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|1</t>
-  </si>
-  <si>
     <t>白术2 Atractylodes macrocephala</t>
   </si>
   <si>
     <t xml:space="preserve"> Bupleurum Root </t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|2</t>
-  </si>
-  <si>
     <t>柴胡 Bupleurum chinense</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|3</t>
-  </si>
-  <si>
     <t>柴胡2 Bupleurum chinense</t>
   </si>
   <si>
     <t xml:space="preserve">Chuanxiong Rhizome </t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|4</t>
-  </si>
-  <si>
     <t>川芎 Ligusticum chuanxiong</t>
   </si>
   <si>
     <t>Chuanxiong Rhizome</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|5</t>
-  </si>
-  <si>
     <t>川芎2 Ligusticum chuanxiong</t>
   </si>
   <si>
     <t>Astragalus Root</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|6</t>
-  </si>
-  <si>
     <t>黄芪 Astragalus membranaceus</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|7</t>
-  </si>
-  <si>
     <t>黄芪2 Astragalus membranaceus</t>
   </si>
   <si>
     <t>Pinellia Rhizome</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|8</t>
-  </si>
-  <si>
     <t>半夏 Pinellia ternata</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|9</t>
-  </si>
-  <si>
     <t>半夏2 Pinellia ternata</t>
   </si>
   <si>
     <t>Polygala Root</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|10</t>
-  </si>
-  <si>
     <t>远志 Polygala tenuifolia</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|11</t>
-  </si>
-  <si>
     <t>远志2 Polygala tenuifolia</t>
   </si>
   <si>
     <t>Anemarrhena Rhizome</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|12</t>
-  </si>
-  <si>
     <t>知母 Anemarrhena asphodeloides</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|13</t>
-  </si>
-  <si>
     <t>知母2 Anemarrhena asphodeloides</t>
   </si>
   <si>
     <t>Longan Aril</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|15</t>
-  </si>
-  <si>
     <t>龙眼肉 Dimocarpus longan</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|16</t>
-  </si>
-  <si>
     <t>龙眼2 Dimocarpus longan</t>
   </si>
   <si>
     <t>Poria</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|17</t>
-  </si>
-  <si>
     <t>茯苓 Poria cocos</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|18</t>
-  </si>
-  <si>
     <t>茯苓2 Poria cocos</t>
   </si>
   <si>
     <t xml:space="preserve"> Cornelian Cherry Fruit</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|19</t>
-  </si>
-  <si>
     <t>山茱萸 Cornus officinalis</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|20</t>
-  </si>
-  <si>
     <t>山茱萸2 Cornus officinalis</t>
   </si>
   <si>
     <t>Cimicifuga Rhizome</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|21</t>
-  </si>
-  <si>
     <t>升麻 Cimicifuga foetida</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|22</t>
-  </si>
-  <si>
     <t>升麻2 Cimicifuga foetida</t>
   </si>
   <si>
     <t>Sour Jujube Seed</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|23</t>
-  </si>
-  <si>
     <t>酸枣仁 Ziziphus jujuba var. spinosa</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|24</t>
-  </si>
-  <si>
     <t>酸枣2 Ziziphus jujuba var. spinosa</t>
   </si>
   <si>
     <t>Chinese Yam</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|25</t>
-  </si>
-  <si>
     <t>山药 Dioscorea opposita</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|26</t>
-  </si>
-  <si>
     <t>山药2 Dioscorea opposita</t>
   </si>
   <si>
     <t>Costus Root</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|27</t>
-  </si>
-  <si>
     <t>木香 Aucklandia lappa</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|28</t>
-  </si>
-  <si>
     <t>木香2 Aucklandia lappa</t>
   </si>
   <si>
     <t>Ginseng</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|29</t>
-  </si>
-  <si>
     <t>人参 Panax ginseng</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|30</t>
-  </si>
-  <si>
     <t>人参2 Panax ginseng</t>
   </si>
   <si>
     <t>Dried Tangerine Peel</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|31</t>
-  </si>
-  <si>
     <t>陈皮 Citrus reticulata pericarpium</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|32</t>
-  </si>
-  <si>
     <t>陈皮2 Citrus reticulata pericarpium</t>
   </si>
   <si>
     <t>Tree Peony Bark</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|33</t>
-  </si>
-  <si>
     <t>丹皮 Paeonia suffruticosa</t>
   </si>
   <si>
     <t>Peony flower</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|34</t>
-  </si>
-  <si>
     <t>牡丹 Paeonia suffruticosa Andr</t>
   </si>
   <si>
     <t>Alisma Rhizome</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|35</t>
-  </si>
-  <si>
     <t>泽泻 Alisma orientale</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|36</t>
-  </si>
-  <si>
     <t>泽泻2 Alisma orientale</t>
   </si>
   <si>
     <t>Licorice Root</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|37</t>
-  </si>
-  <si>
     <t>甘草 Glycyrrhiza uralensis</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|38</t>
-  </si>
-  <si>
     <t>甘草2 Glycyrrhiza uralensis</t>
   </si>
   <si>
     <t>Chinese Angelica Root</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|39</t>
-  </si>
-  <si>
     <t>当归 Angelica sinensis</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|40</t>
-  </si>
-  <si>
     <t>当归2 Angelica sinensis</t>
   </si>
   <si>
     <t>White Peony Root</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|41</t>
-  </si>
-  <si>
     <t>白芍 Paeonia lactiflora</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|42</t>
-  </si>
-  <si>
     <t>白芍2 Paeonia lactiflora</t>
   </si>
   <si>
     <t>Prepared Rehmannia Root</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|43</t>
-  </si>
-  <si>
     <t>熟地 Rehmannia glutinosa Praeparata</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|44</t>
-  </si>
-  <si>
     <t>熟地2 Rehmannia glutinosa Praeparata</t>
   </si>
   <si>
     <t>Fresh Ginger</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|45</t>
-  </si>
-  <si>
     <t>生姜 Zingiber officinale</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|46</t>
-  </si>
-  <si>
     <t>生姜2 Zingiber officinale</t>
   </si>
   <si>
     <t>Jujube Fruit</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|47</t>
-  </si>
-  <si>
     <t>大枣 Ziziphus jujuba</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|48</t>
-  </si>
-  <si>
     <t>大枣2 Ziziphus jujuba</t>
   </si>
   <si>
     <t>Black Plum</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|49</t>
-  </si>
-  <si>
     <t>乌梅 Prunus mume</t>
   </si>
   <si>
@@ -605,9 +443,6 @@
     <t>GrindedBlueHerb</t>
   </si>
   <si>
-    <t>Assets/UISprite/medicine04.png|14</t>
-  </si>
-  <si>
     <t>RedHerb|15</t>
   </si>
   <si>
@@ -633,6 +468,186 @@
   </si>
   <si>
     <t>This medicine is for testing. Drink it, and the game will develop itself.</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/example.aseprite|example_0</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/example.aseprite|example_2</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/example.aseprite|example_1</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_0</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_1</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_2</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_3</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_4</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_5</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_6</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_7</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_8</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_9</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_10</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_11</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_12</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_13</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_15</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_16</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_17</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_18</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_19</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_20</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_21</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_22</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_23</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_24</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_25</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_26</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_27</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_28</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_29</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_30</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_31</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_32</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_33</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_34</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_35</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_36</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_37</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_38</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_39</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_40</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_41</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_42</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_43</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_44</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_45</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_46</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_47</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_48</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_49</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/medicine04.png|medicine04_50</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/example_sliced.aseprite|example_sliced_0</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/example_sliced.aseprite|example_sliced_2</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/example_sliced.aseprite|example_sliced_1</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/testMedicine.png|testMedicine</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>Assets/UISprite/shit.png|shit</t>
+  </si>
+  <si>
+    <t>?????</t>
   </si>
 </sst>
 </file>
@@ -1367,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E334C7F-7DA4-D84D-B0F4-0C2A1DBEDDBF}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -1407,10 +1422,10 @@
         <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1520,10 +1535,10 @@
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
@@ -1532,49 +1547,49 @@
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="2" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -1583,22 +1598,22 @@
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -1607,22 +1622,22 @@
         <v>15</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G10" s="24"/>
       <c r="H10" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -1631,22 +1646,22 @@
         <v>15</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -1655,22 +1670,22 @@
         <v>15</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="23" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -1679,22 +1694,22 @@
         <v>15</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -1703,22 +1718,22 @@
         <v>2</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="23" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -1727,22 +1742,22 @@
         <v>2</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -1751,22 +1766,22 @@
         <v>3</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G16" s="30"/>
       <c r="H16" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -1775,22 +1790,22 @@
         <v>3</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -1799,22 +1814,22 @@
         <v>3</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="23" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -1823,22 +1838,22 @@
         <v>3</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="23" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -1847,22 +1862,22 @@
         <v>1</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G20" s="33"/>
       <c r="H20" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="23" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -1871,22 +1886,22 @@
         <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="23" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -1895,22 +1910,22 @@
         <v>6</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="23" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -1919,22 +1934,22 @@
         <v>6</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="23" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -1943,22 +1958,22 @@
         <v>1</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="23" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -1967,22 +1982,22 @@
         <v>1</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="23" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -1991,22 +2006,22 @@
         <v>1</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G26" s="31"/>
       <c r="H26" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="23" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -2015,22 +2030,22 @@
         <v>1</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="23" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -2039,22 +2054,22 @@
         <v>3</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G28" s="35"/>
       <c r="H28" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="23" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -2063,22 +2078,22 @@
         <v>3</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G29" s="36"/>
       <c r="H29" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="23" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -2087,22 +2102,22 @@
         <v>3</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="23" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -2111,22 +2126,22 @@
         <v>3</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G31" s="29"/>
       <c r="H31" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="23" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -2135,22 +2150,22 @@
         <v>1</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G32" s="38"/>
       <c r="H32" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="23" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -2159,22 +2174,22 @@
         <v>1</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G33" s="38"/>
       <c r="H33" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="23" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -2183,22 +2198,22 @@
         <v>3</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G34" s="31"/>
       <c r="H34" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="23" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -2207,22 +2222,22 @@
         <v>3</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G35" s="33"/>
       <c r="H35" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="23" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -2231,22 +2246,22 @@
         <v>1</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G36" s="33"/>
       <c r="H36" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="23" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -2255,22 +2270,22 @@
         <v>1</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G37" s="31"/>
       <c r="H37" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="23" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -2279,22 +2294,22 @@
         <v>3</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G38" s="39"/>
       <c r="H38" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="23" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -2303,22 +2318,22 @@
         <v>3</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G39" s="39"/>
       <c r="H39" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="23" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -2327,22 +2342,22 @@
         <v>2</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G40" s="33"/>
       <c r="H40" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -2351,22 +2366,22 @@
         <v>2</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G41" s="25"/>
       <c r="H41" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
@@ -2375,22 +2390,22 @@
         <v>2</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -2399,22 +2414,22 @@
         <v>2</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G43" s="37"/>
       <c r="H43" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -2423,22 +2438,22 @@
         <v>3</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G44" s="31"/>
       <c r="H44" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
@@ -2447,22 +2462,22 @@
         <v>3</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G45" s="31"/>
       <c r="H45" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="D46" s="2">
         <v>1</v>
@@ -2471,22 +2486,22 @@
         <v>3</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G46" s="29"/>
       <c r="H46" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
@@ -2495,22 +2510,22 @@
         <v>3</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G47" s="32"/>
       <c r="H47" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
@@ -2519,22 +2534,22 @@
         <v>2</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G48" s="28"/>
       <c r="H48" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="D49" s="2">
         <v>1</v>
@@ -2543,22 +2558,22 @@
         <v>2</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G49" s="32"/>
       <c r="H49" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -2567,22 +2582,22 @@
         <v>2</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G50" s="31"/>
       <c r="H50" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="D51" s="2">
         <v>1</v>
@@ -2591,22 +2606,22 @@
         <v>2</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G51" s="40"/>
       <c r="H51" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="D52" s="2">
         <v>1</v>
@@ -2615,22 +2630,22 @@
         <v>3</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G52" s="41"/>
       <c r="H52" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="D53" s="2">
         <v>1</v>
@@ -2639,22 +2654,22 @@
         <v>3</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G53" s="38"/>
       <c r="H53" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="D54" s="2">
         <v>1</v>
@@ -2663,22 +2678,22 @@
         <v>3</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G54" s="28"/>
       <c r="H54" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="D55" s="2">
         <v>1</v>
@@ -2687,22 +2702,22 @@
         <v>3</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G55" s="27"/>
       <c r="H55" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
@@ -2711,22 +2726,22 @@
         <v>3</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G56" s="38"/>
       <c r="H56" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="D57" s="2">
         <v>1</v>
@@ -2735,22 +2750,22 @@
         <v>3</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G57" s="38"/>
       <c r="H57" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="D58" s="2">
         <v>1</v>
@@ -2759,22 +2774,22 @@
         <v>1</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G58" s="42"/>
       <c r="H58" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="D59" s="2">
         <v>1</v>
@@ -2783,11 +2798,11 @@
         <v>1</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G59" s="43"/>
       <c r="H59" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2809,14 +2824,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A42A68-3584-6C46-86BC-8CF7E0161329}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="79.25" customWidth="1"/>
     <col min="3" max="3" width="39.83203125" customWidth="1"/>
     <col min="4" max="4" width="33.75" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
@@ -2841,47 +2856,47 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -2891,6 +2906,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2899,8 +2915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC29E708-8554-5140-A096-DA9EA2CDC017}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2939,7 +2955,7 @@
     </row>
     <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
@@ -2953,7 +2969,7 @@
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -2967,7 +2983,7 @@
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -2981,15 +2997,29 @@
     </row>
     <row r="5" spans="1:16" ht="80" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="D5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3021,7 +3051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3368BBFE-BECA-2E49-ACAD-103F18EC7B26}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -3039,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3051,10 +3081,10 @@
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="45" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3067,7 +3097,7 @@
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="45"/>
       <c r="B3" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3080,7 +3110,7 @@
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="45"/>
       <c r="B4" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3093,7 +3123,7 @@
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="45"/>
       <c r="B5" s="12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3105,10 +3135,10 @@
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3120,10 +3150,10 @@
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="45" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3136,7 +3166,7 @@
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="45"/>
       <c r="B8" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3149,7 +3179,7 @@
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="45"/>
       <c r="B9" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -3162,7 +3192,7 @@
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="45"/>
       <c r="B10" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -3177,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -3189,10 +3219,10 @@
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="46" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -3205,7 +3235,7 @@
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="46"/>
       <c r="B13" s="16" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -3218,7 +3248,7 @@
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="46"/>
       <c r="B14" s="16" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3231,7 +3261,7 @@
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="46"/>
       <c r="B15" s="16" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3243,10 +3273,10 @@
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3258,10 +3288,10 @@
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="46" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -3274,7 +3304,7 @@
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="46"/>
       <c r="B18" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -3287,7 +3317,7 @@
     <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="46"/>
       <c r="B19" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -3300,7 +3330,7 @@
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="46"/>
       <c r="B20" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3315,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3327,10 +3357,10 @@
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="44" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3343,7 +3373,7 @@
     <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="44"/>
       <c r="B23" s="21" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3356,7 +3386,7 @@
     <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="44"/>
       <c r="B24" s="21" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3369,7 +3399,7 @@
     <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="44"/>
       <c r="B25" s="21" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3381,10 +3411,10 @@
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3396,10 +3426,10 @@
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="44" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3412,7 +3442,7 @@
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="44"/>
       <c r="B28" s="21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3425,13 +3455,13 @@
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="44"/>
       <c r="B29" s="21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="44"/>
       <c r="B30" s="21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
